--- a/graphs/RC_cox_table_Formatted.xlsx
+++ b/graphs/RC_cox_table_Formatted.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chadgevans/Research/Projects/Faculty_Attrition/graphs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chadgevans/Documents/Research/Projects/Faculty_Attrition/graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2200" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="7860" yWindow="940" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="RC_cox_table" sheetId="1" r:id="rId1"/>
@@ -27,17 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>coef</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>exp(coef)</t>
   </si>
   <si>
-    <t>se(coef)</t>
-  </si>
-  <si>
     <t>robust se</t>
   </si>
   <si>
@@ -137,7 +131,13 @@
     <t>Concordance= 0.665  (se = 0.016 )</t>
   </si>
   <si>
-    <t>Rsquare= 0.047   (max possible= 0.923 )</t>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Log salary</t>
+  </si>
+  <si>
+    <t>Rsquare= 0.048   (max possible= 0.923 )</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,10 +215,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,668 +504,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="2.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>1.0509999999999999</v>
+        <v>2.774</v>
       </c>
       <c r="D3" s="5">
-        <v>2.86</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E3" s="5">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="G3" s="5">
-        <v>7.5369999999999999</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7.2889999999999997</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>1.2430000000000001</v>
+        <v>3.3519999999999999</v>
       </c>
       <c r="D4" s="5">
-        <v>3.4660000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="E4" s="5">
-        <v>0.127</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.123</v>
-      </c>
-      <c r="G4" s="5">
-        <v>10.074999999999999</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9.7149999999999999</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5">
-        <v>-2.1999999999999999E-2</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="D5" s="5">
-        <v>0.97899999999999998</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>-1.232</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1.03</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
-        <v>0.48599999999999999</v>
+        <v>1.651</v>
       </c>
       <c r="D7" s="5">
-        <v>1.6259999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E7" s="5">
-        <v>0.106</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4.7569999999999997</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5.0869999999999997</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.437</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="E8" s="5">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5.0149999999999997</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="D9" s="5">
-        <v>1.0209999999999999</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5">
-        <v>-0.06</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="D10" s="5">
-        <v>0.94099999999999995</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="F10" s="5">
+        <v>-2.1339999999999999</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D11" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G10" s="5">
-        <v>-0.68899999999999995</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.49099999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-0.16900000000000001</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="G12" s="5">
-        <v>-0.71299999999999997</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.47599999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="5">
+        <v>-0.61199999999999999</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5">
-        <v>0.127</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="D13" s="5">
-        <v>1.1359999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="E13" s="5">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1.3109999999999999</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.77300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5">
-        <v>5.1999999999999998E-2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D14" s="5">
-        <v>1.0529999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E14" s="5">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="D15" s="5">
         <v>0.107</v>
       </c>
-      <c r="F14" s="5">
-        <v>0.107</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="E16" s="5">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1.427</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="5">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5">
-        <v>0.1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D17" s="5">
-        <v>1.105</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5">
-        <v>0.23</v>
+        <v>1.105</v>
       </c>
       <c r="D18" s="5">
-        <v>1.258</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5">
-        <v>7.6999999999999999E-2</v>
+        <v>1.2370000000000001</v>
       </c>
       <c r="D19" s="5">
-        <v>1.08</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="E19" s="5">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F19" s="5">
+        <v>1.016</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.073</v>
+      </c>
+      <c r="D20" s="5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="G19" s="5">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.996</v>
-      </c>
       <c r="E20" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F20" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G20" s="5">
-        <v>-0.83799999999999997</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.40200000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.495</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5">
-        <v>-7.8E-2</v>
+        <v>0.996</v>
       </c>
       <c r="D21" s="5">
-        <v>0.92500000000000004</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="F21" s="5">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="G21" s="5">
-        <v>-1.319</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.81299999999999994</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="5">
-        <v>2.5999999999999999E-2</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="D22" s="5">
-        <v>1.0269999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="E22" s="5">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F22" s="5">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1.4339999999999999</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="5">
-        <v>-0.09</v>
+        <v>1.03</v>
       </c>
       <c r="D23" s="5">
-        <v>0.91400000000000003</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E23" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F23" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G23" s="5">
-        <v>-1.2829999999999999</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="5">
-        <v>-6.0000000000000001E-3</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D24" s="5">
-        <v>0.99399999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="F24" s="5">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G24" s="5">
-        <v>-9.0999999999999998E-2</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-1.3080000000000001</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="5">
-        <v>5.8000000000000003E-2</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="D25" s="5">
-        <v>1.06</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F25" s="5">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.114</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="5">
-        <v>-0.2</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="D26" s="5">
-        <v>0.81899999999999995</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F26" s="5">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="5">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D27" s="5">
         <v>0.114</v>
       </c>
-      <c r="G26" s="5">
-        <v>-1.7549999999999999</v>
-      </c>
-      <c r="H26" s="5">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="E27" s="5">
+        <v>-1.712</v>
+      </c>
+      <c r="F27" s="10">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D28" s="5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-3.504</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.972</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7">
-        <v>-0.34499999999999997</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="7">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="G27" s="7">
-        <v>-3.508</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="C30" s="5">
+        <v>1.179</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5">
-        <v>1.085</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2.9580000000000002</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="G28" s="5">
-        <v>2.2519999999999998</v>
-      </c>
-      <c r="H28" s="5">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9">
+        <v>1.351</v>
+      </c>
+      <c r="D31" s="9">
         <v>0.17</v>
       </c>
-      <c r="D29" s="5">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="E31" s="9">
+        <v>1.7709999999999999</v>
+      </c>
+      <c r="F31" s="11">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1.752</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
     </row>
